--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_120.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_120.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3214285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(180.06, 182.26), (22.66, 29.32)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(44.62, 47.46), (101.18, 113.78)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2152173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj'], ['G#:7', 'C#:maj', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(70.06, 80.28), (16.92, 23.9)]</t>
+          <t>[['Eb', 'Bb:7', 'Eb'], ['D:7', 'G', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72), (62.48, 64.92)]</t>
+          <t>[('0:00:17.480000', '0:00:19.720000'), ('0:00:11.800000', '0:00:15.840000'), ('0:00:00.380000', '0:00:03.700000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:48.001000', '0:00:54.307000'), ('0:01:16.958000', '0:01:25.346000'), ('0:00:07.702000', '0:00:13.841000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.118130457113508</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'C', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2015810276679842</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G', 'G', 'G']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(48.53, 52.39)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(17.22, 24.32)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2259615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(23.04, 28.92), (253.0, 257.98)]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82), (17.94, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.323076923076923</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>schubert-winterreise_189</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_57</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(53.16, 55.82)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(23.16, 26.04)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88)]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.84, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2527472527472527</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'Eb', 'Bb/3']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.89526, 54.712675)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(22.841, 26.66)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.0, 56.92)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(112.24, 114.88)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2406417112299465</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'E'], ['E/3', 'A', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E'], ['E', 'A', 'E', 'B']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(31.172811, 51.200022), (28.395907, 32.322199)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.942016, 25.860021), (6.726778, 14.737663)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1314285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B'], ['E', 'F#', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285), (26.48873, 32.328548)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853), (60.040123, 71.429511)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_28</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1000967117988394</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj6', 'Ab:maj6'], ['Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj6', 'Db:maj6'], ['Eb:min7', 'Ab:7', 'Db:maj6']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.27, 11.03), (7.73, 9.93)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.96, 19.46), (3.2, 6.96)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(63.12, 69.42)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(100.74, 121.4)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(234.26, 246.86)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(261.68, 266.9)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_185</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'A', 'G:maj/9']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(51.090272, 54.596485)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(48.617346, 63.687097)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
